--- a/CashFlow/CRL_cashflow.xlsx
+++ b/CashFlow/CRL_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>698000000.0</v>
+        <v>-18379000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>673000000.0</v>
+        <v>-22473000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>481584000.0</v>
+        <v>-20735000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>313539000.0</v>
+        <v>-14803000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>148019000.0</v>
+        <v>-21399000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-15979000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>748000.0</v>
+        <v>405000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-7033000.0</v>
+        <v>394000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-18224000.0</v>
+        <v>299101000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>27085000.0</v>
+        <v>245794000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-18026000.0</v>
+        <v>87680000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>2208000.0</v>
